--- a/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.3.xlsx
@@ -2453,7 +2453,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="E104" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FBB5" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2534,7 +2534,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D747" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9ECF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2741,7 +2741,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E711" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CA27" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2817,7 +2817,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E47A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BAA4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2939,7 +2939,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BAD5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E2DC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3091,7 +3091,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CFC0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F0A7" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3301,7 +3301,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C5E5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BB68" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3470,7 +3470,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="ADB7" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E7BF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3575,7 +3575,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C539" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DE54" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -4339,7 +4339,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9365" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E7B8" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4428,7 +4428,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8B0B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C674" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -4583,7 +4583,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BD97" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="87E0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4786,7 +4786,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CBB1" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A36F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -5158,7 +5158,7 @@
       <c r="AD4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B559" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ED3C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AD4"/>
   </mergeCells>
@@ -5377,7 +5377,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9ECD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D893" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.3.xlsx
@@ -2453,7 +2453,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="FBB5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="86A2" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2534,7 +2534,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9ECF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D94C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2741,7 +2741,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CA27" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CEEB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2817,7 +2817,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BAA4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A33D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2939,7 +2939,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E2DC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8BE8" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3091,7 +3091,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F0A7" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F10F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3301,7 +3301,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BB68" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F97B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3470,7 +3470,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E7BF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AE0D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3575,7 +3575,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DE54" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DE82" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -4339,7 +4339,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E7B8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AC8D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4428,7 +4428,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C674" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E53A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -4583,7 +4583,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="87E0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F494" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4786,7 +4786,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A36F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A7BA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -5158,7 +5158,7 @@
       <c r="AD4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="ED3C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FFDE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AD4"/>
   </mergeCells>
@@ -5377,7 +5377,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D893" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D0B5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.3.xlsx
@@ -2453,7 +2453,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="86A2" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="80EB" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2534,7 +2534,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D94C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BD27" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2741,7 +2741,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CEEB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F4D2" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2817,7 +2817,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A33D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="81AC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2939,7 +2939,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8BE8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8F82" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3091,7 +3091,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F10F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8A52" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3301,7 +3301,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F97B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D35F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3470,7 +3470,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AE0D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9593" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3575,7 +3575,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DE82" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EE49" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -4339,7 +4339,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AC8D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ECD9" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4428,7 +4428,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E53A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EC76" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -4583,7 +4583,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F494" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CBAF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4786,7 +4786,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A7BA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C317" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -5158,7 +5158,7 @@
       <c r="AD4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FFDE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CA3B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AD4"/>
   </mergeCells>
@@ -5377,7 +5377,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D0B5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BA75" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.3.xlsx
@@ -2453,7 +2453,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="80EB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D695" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2534,7 +2534,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BD27" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F61A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2741,7 +2741,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F4D2" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EC41" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2817,7 +2817,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="81AC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="95CE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2939,7 +2939,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8F82" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BA92" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3091,7 +3091,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8A52" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ECB3" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3301,7 +3301,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D35F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C1B4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3470,7 +3470,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9593" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D943" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3575,7 +3575,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EE49" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F9AF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -4339,7 +4339,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="ECD9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9190" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4428,7 +4428,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EC76" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8D10" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -4583,7 +4583,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CBAF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C22A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4786,7 +4786,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C317" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B459" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -5158,7 +5158,7 @@
       <c r="AD4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CA3B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="85AD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AD4"/>
   </mergeCells>
@@ -5377,7 +5377,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BA75" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9681" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.3.xlsx
@@ -2453,7 +2453,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D695" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ED41" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2534,7 +2534,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F61A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="91F7" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2741,7 +2741,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EC41" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FA5C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2817,7 +2817,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="95CE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CF5B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2939,7 +2939,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BA92" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B0D6" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3091,7 +3091,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="ECB3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9934" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3301,7 +3301,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C1B4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CDAE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3470,7 +3470,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D943" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C583" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3575,7 +3575,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F9AF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A437" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -4339,7 +4339,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9190" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8E54" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4428,7 +4428,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8D10" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D851" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -4583,7 +4583,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C22A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F779" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4786,7 +4786,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B459" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8C4A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -5158,7 +5158,7 @@
       <c r="AD4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="85AD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9013" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AD4"/>
   </mergeCells>
@@ -5377,7 +5377,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9681" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="850B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.3.xlsx
@@ -2453,7 +2453,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="ED41" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E0C2" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2534,7 +2534,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="91F7" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A05A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2741,7 +2741,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FA5C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C82F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2817,7 +2817,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CF5B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8B94" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2939,7 +2939,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B0D6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C649" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3091,7 +3091,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9934" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E7A7" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3301,7 +3301,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CDAE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CB7C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3470,7 +3470,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C583" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="960A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3575,7 +3575,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A437" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="83E2" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -4339,7 +4339,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8E54" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D082" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4428,7 +4428,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D851" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E912" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -4583,7 +4583,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F779" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9593" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4786,7 +4786,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8C4A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E321" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -5158,7 +5158,7 @@
       <c r="AD4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9013" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A24D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AD4"/>
   </mergeCells>
@@ -5377,7 +5377,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="850B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CA92" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.3.xlsx
@@ -2453,7 +2453,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="E0C2" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8077" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2534,7 +2534,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A05A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B85E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2741,7 +2741,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C82F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9416" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2817,7 +2817,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8B94" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AE0F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2939,7 +2939,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C649" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D457" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3091,7 +3091,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E7A7" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F224" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3301,7 +3301,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CB7C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BEBE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3470,7 +3470,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="960A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A521" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3575,7 +3575,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="83E2" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EA44" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -4339,7 +4339,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D082" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A11B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4428,7 +4428,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E912" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F4A5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -4583,7 +4583,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9593" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8546" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4786,7 +4786,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E321" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B86B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -5158,7 +5158,7 @@
       <c r="AD4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A24D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FD8C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AD4"/>
   </mergeCells>
@@ -5377,7 +5377,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CA92" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="98A8" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.3.xlsx
@@ -2453,7 +2453,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="8077" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D2A7" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2534,7 +2534,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B85E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9479" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2741,7 +2741,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9416" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C4A4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2817,7 +2817,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AE0F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="816A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2939,7 +2939,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D457" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F34E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3091,7 +3091,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F224" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FB61" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3301,7 +3301,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BEBE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E029" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3470,7 +3470,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A521" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AB99" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3575,7 +3575,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EA44" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CF45" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -4339,7 +4339,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A11B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="91EB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4428,7 +4428,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F4A5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B256" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -4583,7 +4583,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8546" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8F8E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4786,7 +4786,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B86B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E4A0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -5158,7 +5158,7 @@
       <c r="AD4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FD8C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9A5A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AD4"/>
   </mergeCells>
@@ -5377,7 +5377,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="98A8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BEF7" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.3.xlsx
@@ -2453,7 +2453,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D2A7" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F692" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2534,7 +2534,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9479" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C63F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2741,7 +2741,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C4A4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8601" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2817,7 +2817,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="816A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E6BA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2939,7 +2939,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F34E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D662" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3091,7 +3091,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FB61" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FCE7" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3301,7 +3301,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E029" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="83F7" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3470,7 +3470,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AB99" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8E49" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3575,7 +3575,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CF45" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D4A3" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -4339,7 +4339,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="91EB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DD8F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4428,7 +4428,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B256" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A958" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -4583,7 +4583,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8F8E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D3AE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4786,7 +4786,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E4A0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="89B0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -5158,7 +5158,7 @@
       <c r="AD4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9A5A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9818" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AD4"/>
   </mergeCells>
@@ -5377,7 +5377,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BEF7" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C72F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.3.xlsx
@@ -2453,7 +2453,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="F692" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EBF0" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2534,7 +2534,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C63F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="87AE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2741,7 +2741,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8601" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F438" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2817,7 +2817,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E6BA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D003" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2939,7 +2939,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D662" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A4BB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3091,7 +3091,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FCE7" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CC0B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3301,7 +3301,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="83F7" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EB4C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3470,7 +3470,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8E49" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C2DB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3575,7 +3575,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D4A3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F013" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -4339,7 +4339,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DD8F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BA26" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4428,7 +4428,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A958" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8D6B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -4583,7 +4583,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D3AE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C523" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4786,7 +4786,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="89B0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="830F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -5158,7 +5158,7 @@
       <c r="AD4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9818" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C985" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AD4"/>
   </mergeCells>
@@ -5377,7 +5377,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C72F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9E05" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.3.xlsx
@@ -2453,7 +2453,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="EBF0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9C10" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2534,7 +2534,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="87AE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="825B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2741,7 +2741,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F438" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F93D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2817,7 +2817,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D003" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C96A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2939,7 +2939,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A4BB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B360" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3091,7 +3091,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CC0B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B488" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3301,7 +3301,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EB4C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CDF3" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3470,7 +3470,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C2DB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B80F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3575,7 +3575,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F013" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8907" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -4339,7 +4339,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BA26" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="945C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4428,7 +4428,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8D6B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C8FD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -4583,7 +4583,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C523" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="98C1" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4786,7 +4786,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="830F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="879D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -5158,7 +5158,7 @@
       <c r="AD4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C985" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A373" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AD4"/>
   </mergeCells>
@@ -5377,7 +5377,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9E05" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DC28" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
